--- a/zone_map.xlsx
+++ b/zone_map.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antho\OneDrive\Documents\NUI Galway\4th Year\EE451 - System on Chip Design I\Breakout-RISC-V-Assembly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcann\Documents\4th Year ECE\System On Chip 1\Latest\Breakout-RISC-V-Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5EF0F7-6ACA-4FEC-872B-739A1AEA786D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB9280-AFED-4447-94C1-6C289C9BE81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366B14F3-2E03-4CEC-9AC4-9290162A6A38}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>ZONE 5</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Zone 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> x = 25, y = 7</t>
   </si>
 </sst>
 </file>
@@ -254,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -277,11 +280,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -315,6 +333,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +656,7 @@
   <dimension ref="A1:BU68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2578,7 +2597,9 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
       <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
+      <c r="H33" s="33" t="s">
+        <v>33</v>
+      </c>
       <c r="I33" s="31"/>
       <c r="J33" s="31"/>
       <c r="K33" s="31"/>
@@ -2864,6 +2885,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010025E64E228E24E2419F632CCB50A74D06" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="35eec742916d2c0e4e8e2e4e76c54d18">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f7472d12-50bb-46b4-ad99-939480e9076e" xmlns:ns4="391ddd00-d970-4537-8114-014655850abc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="fadd0b94f4a4374cb16b480fdc9917a2" ns3:_="" ns4:_="">
     <xsd:import namespace="f7472d12-50bb-46b4-ad99-939480e9076e"/>
@@ -3092,36 +3128,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A0A2BB4-C6D3-4BD7-BE3A-3F27A830DD72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C68DF0D-E828-4749-BC03-2DAD0E57379C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f7472d12-50bb-46b4-ad99-939480e9076e"/>
-    <ds:schemaRef ds:uri="391ddd00-d970-4537-8114-014655850abc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3144,9 +3154,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C68DF0D-E828-4749-BC03-2DAD0E57379C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A0A2BB4-C6D3-4BD7-BE3A-3F27A830DD72}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f7472d12-50bb-46b4-ad99-939480e9076e"/>
+    <ds:schemaRef ds:uri="391ddd00-d970-4537-8114-014655850abc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/zone_map.xlsx
+++ b/zone_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcann\Documents\4th Year ECE\System On Chip 1\Latest\Breakout-RISC-V-Assembly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB9280-AFED-4447-94C1-6C289C9BE81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD096303-8356-411A-A07E-74436F8AC4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{366B14F3-2E03-4CEC-9AC4-9290162A6A38}"/>
+    <workbookView xWindow="3015" yWindow="930" windowWidth="21600" windowHeight="11385" xr2:uid="{366B14F3-2E03-4CEC-9AC4-9290162A6A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="39">
   <si>
     <t>ZONE 5</t>
   </si>
@@ -55,12 +55,6 @@
   </si>
   <si>
     <t>No Zone?</t>
-  </si>
-  <si>
-    <t>No Zone for the Middle Section of the Program.</t>
-  </si>
-  <si>
-    <t>OR</t>
   </si>
   <si>
     <t>x00000000</t>
@@ -136,6 +130,27 @@
   </si>
   <si>
     <t xml:space="preserve"> x = 25, y = 7</t>
+  </si>
+  <si>
+    <t>x = 19, y = 8</t>
+  </si>
+  <si>
+    <t>x = 25,y= 13</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Zone 5 or 6 (Depends on CSBallDir)</t>
   </si>
 </sst>
 </file>
@@ -228,12 +243,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,6 +263,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightHorizontal">
+        <fgColor theme="0"/>
+        <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -299,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -313,27 +328,28 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C167AF2A-75F6-4562-9B92-36E2BD9046FD}">
-  <dimension ref="A1:BU68"/>
+  <dimension ref="A1:BU88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,41 +925,41 @@
       <c r="AK2" s="1">
         <v>15</v>
       </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="19"/>
-      <c r="AO2" s="19"/>
-      <c r="AP2" s="19"/>
-      <c r="AQ2" s="19"/>
-      <c r="AR2" s="19"/>
-      <c r="AS2" s="19"/>
-      <c r="AT2" s="19"/>
-      <c r="AU2" s="19"/>
-      <c r="AV2" s="19"/>
-      <c r="AW2" s="19"/>
-      <c r="AX2" s="19"/>
-      <c r="AY2" s="19"/>
-      <c r="AZ2" s="19"/>
-      <c r="BA2" s="19"/>
-      <c r="BB2" s="19"/>
-      <c r="BC2" s="19"/>
-      <c r="BD2" s="19"/>
-      <c r="BE2" s="19"/>
-      <c r="BF2" s="19"/>
-      <c r="BG2" s="19"/>
-      <c r="BH2" s="19"/>
-      <c r="BI2" s="19"/>
-      <c r="BJ2" s="19"/>
-      <c r="BK2" s="19"/>
-      <c r="BL2" s="19"/>
-      <c r="BM2" s="19"/>
-      <c r="BN2" s="19"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="20"/>
+      <c r="AL2" s="15"/>
+      <c r="AM2" s="15"/>
+      <c r="AN2" s="16"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16"/>
+      <c r="AV2" s="16"/>
+      <c r="AW2" s="16"/>
+      <c r="AX2" s="16"/>
+      <c r="AY2" s="16"/>
+      <c r="AZ2" s="16"/>
+      <c r="BA2" s="16"/>
+      <c r="BB2" s="16"/>
+      <c r="BC2" s="16"/>
+      <c r="BD2" s="16"/>
+      <c r="BE2" s="16"/>
+      <c r="BF2" s="16"/>
+      <c r="BG2" s="16"/>
+      <c r="BH2" s="16"/>
+      <c r="BI2" s="16"/>
+      <c r="BJ2" s="16"/>
+      <c r="BK2" s="16"/>
+      <c r="BL2" s="16"/>
+      <c r="BM2" s="16"/>
+      <c r="BN2" s="16"/>
+      <c r="BO2" s="16"/>
+      <c r="BP2" s="16"/>
+      <c r="BQ2" s="17"/>
       <c r="BR2" s="2"/>
       <c r="BT2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BU2">
         <v>0</v>
@@ -956,7 +972,7 @@
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -987,50 +1003,50 @@
       <c r="AE3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="16"/>
+      <c r="AF3" s="13"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="2"/>
       <c r="AK3" s="1">
         <v>14</v>
       </c>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="21"/>
-      <c r="AP3" s="21"/>
-      <c r="AQ3" s="21"/>
-      <c r="AR3" s="19"/>
-      <c r="AS3" s="19"/>
-      <c r="AT3" s="19"/>
-      <c r="AU3" s="21"/>
-      <c r="AV3" s="19"/>
-      <c r="AW3" s="19"/>
-      <c r="AX3" s="19"/>
-      <c r="AY3" s="21"/>
-      <c r="AZ3" s="19"/>
-      <c r="BA3" s="21"/>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="21"/>
-      <c r="BF3" s="21"/>
-      <c r="BG3" s="21"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="20"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+      <c r="AU3" s="18"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="16"/>
+      <c r="AX3" s="16"/>
+      <c r="AY3" s="18"/>
+      <c r="AZ3" s="16"/>
+      <c r="BA3" s="18"/>
+      <c r="BB3" s="16"/>
+      <c r="BC3" s="16"/>
+      <c r="BD3" s="16"/>
+      <c r="BE3" s="18"/>
+      <c r="BF3" s="18"/>
+      <c r="BG3" s="18"/>
+      <c r="BH3" s="16"/>
+      <c r="BI3" s="16"/>
+      <c r="BJ3" s="16"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="16"/>
+      <c r="BM3" s="16"/>
+      <c r="BN3" s="16"/>
+      <c r="BO3" s="17"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="16"/>
       <c r="BR3" s="2"/>
       <c r="BS3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BT3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BU3">
         <v>1</v>
@@ -1076,44 +1092,44 @@
       <c r="AK4" s="1">
         <v>13</v>
       </c>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="21"/>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="21"/>
-      <c r="AU4" s="19"/>
-      <c r="AV4" s="21"/>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="21"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="21"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="21"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="21"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="19"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="16"/>
+      <c r="BG4" s="16"/>
+      <c r="BH4" s="16"/>
+      <c r="BI4" s="16"/>
+      <c r="BJ4" s="16"/>
+      <c r="BK4" s="16"/>
+      <c r="BL4" s="16"/>
+      <c r="BM4" s="16"/>
+      <c r="BN4" s="16"/>
+      <c r="BO4" s="16"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
       <c r="BR4" s="2"/>
       <c r="BS4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BT4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BU4">
         <v>2</v>
@@ -1159,44 +1175,44 @@
       <c r="AK5" s="1">
         <v>12</v>
       </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="19"/>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="19"/>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19"/>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="19"/>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="19"/>
-      <c r="AV5" s="21"/>
-      <c r="AW5" s="19"/>
-      <c r="AX5" s="21"/>
-      <c r="AY5" s="19"/>
-      <c r="AZ5" s="21"/>
-      <c r="BA5" s="19"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="19"/>
-      <c r="BD5" s="21"/>
-      <c r="BE5" s="19"/>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="19"/>
-      <c r="BH5" s="19"/>
-      <c r="BI5" s="19"/>
-      <c r="BJ5" s="19"/>
-      <c r="BK5" s="19"/>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19"/>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="19"/>
-      <c r="BP5" s="19"/>
-      <c r="BQ5" s="19"/>
+      <c r="AL5" s="16"/>
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="18"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="18"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="18"/>
+      <c r="AW5" s="16"/>
+      <c r="AX5" s="18"/>
+      <c r="AY5" s="16"/>
+      <c r="AZ5" s="18"/>
+      <c r="BA5" s="16"/>
+      <c r="BB5" s="18"/>
+      <c r="BC5" s="16"/>
+      <c r="BD5" s="18"/>
+      <c r="BE5" s="16"/>
+      <c r="BF5" s="16"/>
+      <c r="BG5" s="16"/>
+      <c r="BH5" s="16"/>
+      <c r="BI5" s="16"/>
+      <c r="BJ5" s="16"/>
+      <c r="BK5" s="16"/>
+      <c r="BL5" s="16"/>
+      <c r="BM5" s="16"/>
+      <c r="BN5" s="16"/>
+      <c r="BO5" s="16"/>
+      <c r="BP5" s="16"/>
+      <c r="BQ5" s="16"/>
       <c r="BR5" s="2"/>
       <c r="BS5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BT5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BU5">
         <v>3</v>
@@ -1242,44 +1258,44 @@
       <c r="AK6" s="1">
         <v>11</v>
       </c>
-      <c r="AL6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="21"/>
-      <c r="AQ6" s="21"/>
-      <c r="AR6" s="21"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="21"/>
-      <c r="AU6" s="21"/>
-      <c r="AV6" s="21"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="21"/>
-      <c r="AY6" s="19"/>
-      <c r="AZ6" s="21"/>
-      <c r="BA6" s="19"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="19"/>
-      <c r="BD6" s="21"/>
-      <c r="BE6" s="21"/>
-      <c r="BF6" s="21"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
-      <c r="BK6" s="19"/>
-      <c r="BL6" s="19"/>
-      <c r="BM6" s="19"/>
-      <c r="BN6" s="19"/>
-      <c r="BO6" s="19"/>
-      <c r="BP6" s="19"/>
-      <c r="BQ6" s="19"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18"/>
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="16"/>
+      <c r="AX6" s="18"/>
+      <c r="AY6" s="16"/>
+      <c r="AZ6" s="18"/>
+      <c r="BA6" s="16"/>
+      <c r="BB6" s="18"/>
+      <c r="BC6" s="16"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="16"/>
+      <c r="BH6" s="16"/>
+      <c r="BI6" s="16"/>
+      <c r="BJ6" s="16"/>
+      <c r="BK6" s="16"/>
+      <c r="BL6" s="16"/>
+      <c r="BM6" s="16"/>
+      <c r="BN6" s="16"/>
+      <c r="BO6" s="16"/>
+      <c r="BP6" s="16"/>
+      <c r="BQ6" s="16"/>
       <c r="BR6" s="2"/>
       <c r="BS6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BT6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BU6">
         <v>4</v>
@@ -1329,44 +1345,44 @@
       <c r="AK7" s="1">
         <v>10</v>
       </c>
-      <c r="AL7" s="19"/>
-      <c r="AM7" s="19"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19"/>
-      <c r="AR7" s="21"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="21"/>
-      <c r="AU7" s="19"/>
-      <c r="AV7" s="21"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="21"/>
-      <c r="AY7" s="19"/>
-      <c r="AZ7" s="21"/>
-      <c r="BA7" s="19"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="19"/>
-      <c r="BD7" s="21"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
-      <c r="BK7" s="19"/>
-      <c r="BL7" s="19"/>
-      <c r="BM7" s="19"/>
-      <c r="BN7" s="19"/>
-      <c r="BO7" s="19"/>
-      <c r="BP7" s="19"/>
-      <c r="BQ7" s="19"/>
+      <c r="AL7" s="16"/>
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="16"/>
+      <c r="AX7" s="18"/>
+      <c r="AY7" s="16"/>
+      <c r="AZ7" s="18"/>
+      <c r="BA7" s="16"/>
+      <c r="BB7" s="18"/>
+      <c r="BC7" s="16"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="16"/>
+      <c r="BF7" s="16"/>
+      <c r="BG7" s="16"/>
+      <c r="BH7" s="16"/>
+      <c r="BI7" s="16"/>
+      <c r="BJ7" s="16"/>
+      <c r="BK7" s="16"/>
+      <c r="BL7" s="16"/>
+      <c r="BM7" s="16"/>
+      <c r="BN7" s="16"/>
+      <c r="BO7" s="16"/>
+      <c r="BP7" s="16"/>
+      <c r="BQ7" s="16"/>
       <c r="BR7" s="2"/>
       <c r="BS7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BT7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BU7">
         <v>5</v>
@@ -1412,44 +1428,44 @@
       <c r="AK8" s="1">
         <v>9</v>
       </c>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="21"/>
-      <c r="AP8" s="21"/>
-      <c r="AQ8" s="21"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="21"/>
-      <c r="AU8" s="19"/>
-      <c r="AV8" s="21"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="21"/>
-      <c r="AY8" s="19"/>
-      <c r="AZ8" s="21"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="19"/>
-      <c r="BD8" s="19"/>
-      <c r="BE8" s="21"/>
-      <c r="BF8" s="21"/>
-      <c r="BG8" s="21"/>
-      <c r="BH8" s="19"/>
-      <c r="BI8" s="19"/>
-      <c r="BJ8" s="19"/>
-      <c r="BK8" s="19"/>
-      <c r="BL8" s="19"/>
-      <c r="BM8" s="19"/>
-      <c r="BN8" s="19"/>
-      <c r="BO8" s="19"/>
-      <c r="BP8" s="19"/>
-      <c r="BQ8" s="19"/>
+      <c r="AL8" s="16"/>
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18"/>
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="16"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="16"/>
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="16"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="16"/>
+      <c r="BD8" s="16"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
       <c r="BR8" s="2"/>
       <c r="BS8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BT8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BU8">
         <v>6</v>
@@ -1499,44 +1515,44 @@
       <c r="AK9" s="1">
         <v>8</v>
       </c>
-      <c r="AL9" s="19"/>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19"/>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19"/>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19"/>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
+      <c r="AL9" s="16"/>
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="16"/>
+      <c r="AX9" s="16"/>
+      <c r="AY9" s="16"/>
+      <c r="AZ9" s="16"/>
+      <c r="BA9" s="16"/>
+      <c r="BB9" s="16"/>
+      <c r="BC9" s="16"/>
+      <c r="BD9" s="16"/>
+      <c r="BE9" s="16"/>
+      <c r="BF9" s="16"/>
+      <c r="BG9" s="16"/>
+      <c r="BH9" s="16"/>
+      <c r="BI9" s="16"/>
+      <c r="BJ9" s="16"/>
+      <c r="BK9" s="16"/>
+      <c r="BL9" s="16"/>
+      <c r="BM9" s="16"/>
+      <c r="BN9" s="16"/>
+      <c r="BO9" s="16"/>
+      <c r="BP9" s="16"/>
+      <c r="BQ9" s="16"/>
       <c r="BR9" s="2"/>
       <c r="BS9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BT9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BU9">
         <v>7</v>
@@ -1582,44 +1598,44 @@
       <c r="AK10" s="1">
         <v>7</v>
       </c>
-      <c r="AL10" s="19"/>
-      <c r="AM10" s="19"/>
-      <c r="AN10" s="19"/>
-      <c r="AO10" s="19"/>
-      <c r="AP10" s="19"/>
-      <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
-      <c r="AT10" s="19"/>
-      <c r="AU10" s="19"/>
-      <c r="AV10" s="19"/>
-      <c r="AW10" s="19"/>
-      <c r="AX10" s="19"/>
-      <c r="AY10" s="19"/>
-      <c r="AZ10" s="19"/>
-      <c r="BA10" s="19"/>
-      <c r="BB10" s="19"/>
-      <c r="BC10" s="19"/>
-      <c r="BD10" s="19"/>
-      <c r="BE10" s="19"/>
-      <c r="BF10" s="19"/>
-      <c r="BG10" s="19"/>
-      <c r="BH10" s="19"/>
-      <c r="BI10" s="19"/>
-      <c r="BJ10" s="19"/>
-      <c r="BK10" s="19"/>
-      <c r="BL10" s="19"/>
-      <c r="BM10" s="19"/>
-      <c r="BN10" s="19"/>
-      <c r="BO10" s="19"/>
-      <c r="BP10" s="19"/>
-      <c r="BQ10" s="19"/>
+      <c r="AL10" s="16"/>
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="16"/>
+      <c r="AX10" s="16"/>
+      <c r="AY10" s="16"/>
+      <c r="AZ10" s="16"/>
+      <c r="BA10" s="16"/>
+      <c r="BB10" s="16"/>
+      <c r="BC10" s="16"/>
+      <c r="BD10" s="16"/>
+      <c r="BE10" s="16"/>
+      <c r="BF10" s="16"/>
+      <c r="BG10" s="16"/>
+      <c r="BH10" s="16"/>
+      <c r="BI10" s="16"/>
+      <c r="BJ10" s="16"/>
+      <c r="BK10" s="16"/>
+      <c r="BL10" s="16"/>
+      <c r="BM10" s="16"/>
+      <c r="BN10" s="16"/>
+      <c r="BO10" s="16"/>
+      <c r="BP10" s="16"/>
+      <c r="BQ10" s="16"/>
       <c r="BR10" s="2"/>
       <c r="BS10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BT10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BU10">
         <v>8</v>
@@ -1665,44 +1681,44 @@
       <c r="AK11" s="1">
         <v>6</v>
       </c>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="21"/>
-      <c r="AP11" s="21"/>
-      <c r="AQ11" s="21"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
-      <c r="AT11" s="21"/>
-      <c r="AU11" s="19"/>
-      <c r="AV11" s="19"/>
-      <c r="AW11" s="19"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="19"/>
-      <c r="AZ11" s="19"/>
-      <c r="BA11" s="21"/>
-      <c r="BB11" s="21"/>
-      <c r="BC11" s="21"/>
-      <c r="BD11" s="19"/>
-      <c r="BE11" s="21"/>
-      <c r="BF11" s="21"/>
-      <c r="BG11" s="21"/>
-      <c r="BH11" s="19"/>
-      <c r="BI11" s="19"/>
-      <c r="BJ11" s="19"/>
-      <c r="BK11" s="19"/>
-      <c r="BL11" s="19"/>
-      <c r="BM11" s="19"/>
-      <c r="BN11" s="19"/>
-      <c r="BO11" s="19"/>
-      <c r="BP11" s="19"/>
-      <c r="BQ11" s="19"/>
+      <c r="AL11" s="16"/>
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="18"/>
+      <c r="AP11" s="18"/>
+      <c r="AQ11" s="18"/>
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="18"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="16"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="16"/>
+      <c r="AZ11" s="16"/>
+      <c r="BA11" s="18"/>
+      <c r="BB11" s="18"/>
+      <c r="BC11" s="18"/>
+      <c r="BD11" s="16"/>
+      <c r="BE11" s="18"/>
+      <c r="BF11" s="18"/>
+      <c r="BG11" s="18"/>
+      <c r="BH11" s="16"/>
+      <c r="BI11" s="16"/>
+      <c r="BJ11" s="16"/>
+      <c r="BK11" s="16"/>
+      <c r="BL11" s="16"/>
+      <c r="BM11" s="16"/>
+      <c r="BN11" s="16"/>
+      <c r="BO11" s="16"/>
+      <c r="BP11" s="16"/>
+      <c r="BQ11" s="16"/>
       <c r="BR11" s="2"/>
       <c r="BS11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BT11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BU11">
         <v>9</v>
@@ -1748,44 +1764,44 @@
       <c r="AK12" s="1">
         <v>5</v>
       </c>
-      <c r="AL12" s="19"/>
-      <c r="AM12" s="19"/>
-      <c r="AN12" s="21"/>
-      <c r="AO12" s="19"/>
-      <c r="AP12" s="19"/>
-      <c r="AQ12" s="19"/>
-      <c r="AR12" s="21"/>
-      <c r="AS12" s="19"/>
-      <c r="AT12" s="21"/>
-      <c r="AU12" s="19"/>
-      <c r="AV12" s="19"/>
-      <c r="AW12" s="19"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="19"/>
-      <c r="AZ12" s="21"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="19"/>
-      <c r="BC12" s="19"/>
-      <c r="BD12" s="19"/>
-      <c r="BE12" s="21"/>
-      <c r="BF12" s="19"/>
-      <c r="BG12" s="19"/>
-      <c r="BH12" s="21"/>
-      <c r="BI12" s="19"/>
-      <c r="BJ12" s="19"/>
-      <c r="BK12" s="19"/>
-      <c r="BL12" s="19"/>
-      <c r="BM12" s="19"/>
-      <c r="BN12" s="19"/>
-      <c r="BO12" s="19"/>
-      <c r="BP12" s="19"/>
-      <c r="BQ12" s="19"/>
+      <c r="AL12" s="16"/>
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="18"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="18"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="18"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="16"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="16"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="18"/>
+      <c r="BF12" s="16"/>
+      <c r="BG12" s="16"/>
+      <c r="BH12" s="18"/>
+      <c r="BI12" s="16"/>
+      <c r="BJ12" s="16"/>
+      <c r="BK12" s="16"/>
+      <c r="BL12" s="16"/>
+      <c r="BM12" s="16"/>
+      <c r="BN12" s="16"/>
+      <c r="BO12" s="16"/>
+      <c r="BP12" s="16"/>
+      <c r="BQ12" s="16"/>
       <c r="BR12" s="2"/>
       <c r="BS12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BT12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BU12">
         <v>10</v>
@@ -1831,44 +1847,44 @@
       <c r="AK13" s="1">
         <v>4</v>
       </c>
-      <c r="AL13" s="19"/>
-      <c r="AM13" s="19"/>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="19"/>
-      <c r="AP13" s="19"/>
-      <c r="AQ13" s="19"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="19"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="19"/>
-      <c r="AV13" s="19"/>
-      <c r="AW13" s="19"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="19"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="19"/>
-      <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="19"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="19"/>
-      <c r="BG13" s="19"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="19"/>
-      <c r="BJ13" s="19"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="19"/>
-      <c r="BO13" s="19"/>
-      <c r="BP13" s="19"/>
-      <c r="BQ13" s="19"/>
+      <c r="AL13" s="16"/>
+      <c r="AM13" s="16"/>
+      <c r="AN13" s="18"/>
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+      <c r="AR13" s="18"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="18"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="18"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="18"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="18"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
       <c r="BR13" s="2"/>
       <c r="BS13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BT13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BU13">
         <v>11</v>
@@ -1916,44 +1932,44 @@
       <c r="AK14" s="1">
         <v>3</v>
       </c>
-      <c r="AL14" s="19"/>
-      <c r="AM14" s="19"/>
-      <c r="AN14" s="21"/>
-      <c r="AO14" s="19"/>
-      <c r="AP14" s="19"/>
-      <c r="AQ14" s="19"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="19"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="19"/>
-      <c r="AV14" s="19"/>
-      <c r="AW14" s="19"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="19"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="19"/>
-      <c r="BD14" s="19"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="19"/>
-      <c r="BI14" s="19"/>
-      <c r="BJ14" s="19"/>
-      <c r="BK14" s="19"/>
-      <c r="BL14" s="19"/>
-      <c r="BM14" s="19"/>
-      <c r="BN14" s="19"/>
-      <c r="BO14" s="19"/>
-      <c r="BP14" s="19"/>
-      <c r="BQ14" s="19"/>
+      <c r="AL14" s="16"/>
+      <c r="AM14" s="16"/>
+      <c r="AN14" s="18"/>
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+      <c r="AR14" s="18"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="18"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+      <c r="AW14" s="16"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="16"/>
+      <c r="AZ14" s="18"/>
+      <c r="BA14" s="18"/>
+      <c r="BB14" s="18"/>
+      <c r="BC14" s="16"/>
+      <c r="BD14" s="16"/>
+      <c r="BE14" s="18"/>
+      <c r="BF14" s="18"/>
+      <c r="BG14" s="18"/>
+      <c r="BH14" s="16"/>
+      <c r="BI14" s="16"/>
+      <c r="BJ14" s="16"/>
+      <c r="BK14" s="16"/>
+      <c r="BL14" s="16"/>
+      <c r="BM14" s="16"/>
+      <c r="BN14" s="16"/>
+      <c r="BO14" s="16"/>
+      <c r="BP14" s="16"/>
+      <c r="BQ14" s="16"/>
       <c r="BR14" s="2"/>
       <c r="BS14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="BT14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BU14">
         <v>12</v>
@@ -1967,44 +1983,44 @@
       <c r="AK15" s="1">
         <v>2</v>
       </c>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="19"/>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="19"/>
-      <c r="AP15" s="19"/>
-      <c r="AQ15" s="19"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="19"/>
-      <c r="AT15" s="19"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="19"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="19"/>
-      <c r="AY15" s="19"/>
-      <c r="AZ15" s="21"/>
-      <c r="BA15" s="19"/>
-      <c r="BB15" s="19"/>
-      <c r="BC15" s="19"/>
-      <c r="BD15" s="19"/>
-      <c r="BE15" s="21"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="19"/>
-      <c r="BH15" s="21"/>
-      <c r="BI15" s="19"/>
-      <c r="BJ15" s="19"/>
-      <c r="BK15" s="19"/>
-      <c r="BL15" s="19"/>
-      <c r="BM15" s="19"/>
-      <c r="BN15" s="19"/>
-      <c r="BO15" s="19"/>
-      <c r="BP15" s="19"/>
-      <c r="BQ15" s="19"/>
+      <c r="AL15" s="16"/>
+      <c r="AM15" s="16"/>
+      <c r="AN15" s="18"/>
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+      <c r="AR15" s="18"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="18"/>
+      <c r="AV15" s="16"/>
+      <c r="AW15" s="18"/>
+      <c r="AX15" s="16"/>
+      <c r="AY15" s="16"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="16"/>
+      <c r="BB15" s="16"/>
+      <c r="BC15" s="16"/>
+      <c r="BD15" s="16"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="16"/>
+      <c r="BG15" s="16"/>
+      <c r="BH15" s="18"/>
+      <c r="BI15" s="16"/>
+      <c r="BJ15" s="16"/>
+      <c r="BK15" s="16"/>
+      <c r="BL15" s="16"/>
+      <c r="BM15" s="16"/>
+      <c r="BN15" s="16"/>
+      <c r="BO15" s="16"/>
+      <c r="BP15" s="16"/>
+      <c r="BQ15" s="16"/>
       <c r="BR15" s="2"/>
       <c r="BS15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BT15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BU15">
         <v>13</v>
@@ -2018,44 +2034,44 @@
       <c r="AK16" s="1">
         <v>1</v>
       </c>
-      <c r="AL16" s="19"/>
-      <c r="AM16" s="19"/>
-      <c r="AN16" s="19"/>
-      <c r="AO16" s="21"/>
-      <c r="AP16" s="21"/>
-      <c r="AQ16" s="21"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
-      <c r="AT16" s="19"/>
-      <c r="AU16" s="19"/>
-      <c r="AV16" s="21"/>
-      <c r="AW16" s="19"/>
-      <c r="AX16" s="19"/>
-      <c r="AY16" s="19"/>
-      <c r="AZ16" s="19"/>
-      <c r="BA16" s="21"/>
-      <c r="BB16" s="21"/>
-      <c r="BC16" s="21"/>
-      <c r="BD16" s="19"/>
-      <c r="BE16" s="21"/>
-      <c r="BF16" s="19"/>
-      <c r="BG16" s="19"/>
-      <c r="BH16" s="21"/>
-      <c r="BI16" s="19"/>
-      <c r="BJ16" s="19"/>
-      <c r="BK16" s="19"/>
-      <c r="BL16" s="19"/>
-      <c r="BM16" s="19"/>
-      <c r="BN16" s="19"/>
-      <c r="BO16" s="19"/>
-      <c r="BP16" s="19"/>
-      <c r="BQ16" s="19"/>
+      <c r="AL16" s="16"/>
+      <c r="AM16" s="16"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="18"/>
+      <c r="AP16" s="18"/>
+      <c r="AQ16" s="18"/>
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="18"/>
+      <c r="AW16" s="16"/>
+      <c r="AX16" s="16"/>
+      <c r="AY16" s="16"/>
+      <c r="AZ16" s="16"/>
+      <c r="BA16" s="18"/>
+      <c r="BB16" s="18"/>
+      <c r="BC16" s="18"/>
+      <c r="BD16" s="16"/>
+      <c r="BE16" s="18"/>
+      <c r="BF16" s="16"/>
+      <c r="BG16" s="16"/>
+      <c r="BH16" s="18"/>
+      <c r="BI16" s="16"/>
+      <c r="BJ16" s="16"/>
+      <c r="BK16" s="16"/>
+      <c r="BL16" s="16"/>
+      <c r="BM16" s="16"/>
+      <c r="BN16" s="16"/>
+      <c r="BO16" s="16"/>
+      <c r="BP16" s="16"/>
+      <c r="BQ16" s="16"/>
       <c r="BR16" s="2"/>
       <c r="BS16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BT16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BU16">
         <v>14</v>
@@ -2069,41 +2085,41 @@
       <c r="AK17" s="1">
         <v>0</v>
       </c>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="19"/>
-      <c r="AN17" s="19"/>
-      <c r="AO17" s="19"/>
-      <c r="AP17" s="19"/>
-      <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
-      <c r="AT17" s="19"/>
-      <c r="AU17" s="19"/>
-      <c r="AV17" s="19"/>
-      <c r="AW17" s="19"/>
-      <c r="AX17" s="19"/>
-      <c r="AY17" s="19"/>
-      <c r="AZ17" s="19"/>
-      <c r="BA17" s="19"/>
-      <c r="BB17" s="19"/>
-      <c r="BC17" s="19"/>
-      <c r="BD17" s="19"/>
-      <c r="BE17" s="19"/>
-      <c r="BF17" s="19"/>
-      <c r="BG17" s="19"/>
-      <c r="BH17" s="19"/>
-      <c r="BI17" s="19"/>
-      <c r="BJ17" s="19"/>
-      <c r="BK17" s="19"/>
-      <c r="BL17" s="19"/>
-      <c r="BM17" s="19"/>
-      <c r="BN17" s="19"/>
-      <c r="BO17" s="19"/>
-      <c r="BP17" s="19"/>
-      <c r="BQ17" s="19"/>
+      <c r="AL17" s="16"/>
+      <c r="AM17" s="16"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+      <c r="AW17" s="16"/>
+      <c r="AX17" s="16"/>
+      <c r="AY17" s="16"/>
+      <c r="AZ17" s="16"/>
+      <c r="BA17" s="16"/>
+      <c r="BB17" s="16"/>
+      <c r="BC17" s="16"/>
+      <c r="BD17" s="16"/>
+      <c r="BE17" s="16"/>
+      <c r="BF17" s="16"/>
+      <c r="BG17" s="16"/>
+      <c r="BH17" s="16"/>
+      <c r="BI17" s="16"/>
+      <c r="BJ17" s="16"/>
+      <c r="BK17" s="16"/>
+      <c r="BL17" s="16"/>
+      <c r="BM17" s="16"/>
+      <c r="BN17" s="16"/>
+      <c r="BO17" s="16"/>
+      <c r="BP17" s="16"/>
+      <c r="BQ17" s="16"/>
       <c r="BR17" s="2"/>
       <c r="BT17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BU17">
         <v>15</v>
@@ -2283,38 +2299,38 @@
       <c r="A25" s="1">
         <v>15</v>
       </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="23"/>
-      <c r="AB25" s="26"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="26"/>
-      <c r="AE25" s="27"/>
-      <c r="AF25" s="26"/>
-      <c r="AG25" s="24" t="s">
+      <c r="B25" s="22"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="23"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="23"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="23"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="23"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="23"/>
+      <c r="AG25" s="21" t="s">
         <v>4</v>
       </c>
       <c r="AH25" s="2"/>
@@ -2323,10 +2339,10 @@
       <c r="A26" s="1">
         <v>14</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2341,7 +2357,7 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
@@ -2357,8 +2373,8 @@
       <c r="AC26" s="7"/>
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
-      <c r="AF26" s="29"/>
-      <c r="AG26" s="28" t="s">
+      <c r="AF26" s="26"/>
+      <c r="AG26" s="25" t="s">
         <v>1</v>
       </c>
       <c r="AH26" s="2"/>
@@ -2367,184 +2383,186 @@
       <c r="A27" s="1">
         <v>13</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="31"/>
-      <c r="X27" s="31"/>
-      <c r="Y27" s="31"/>
-      <c r="Z27" s="31"/>
-      <c r="AA27" s="31"/>
-      <c r="AB27" s="31"/>
-      <c r="AC27" s="31"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="31"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="30"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="28"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="28"/>
+      <c r="W27" s="28"/>
+      <c r="X27" s="28"/>
+      <c r="Y27" s="28"/>
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="28"/>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="28"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="28"/>
+      <c r="AG27" s="27"/>
       <c r="AH27" s="2"/>
     </row>
     <row r="28" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>12</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="30"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
+      <c r="AG28" s="27"/>
       <c r="AH28" s="2"/>
     </row>
     <row r="29" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>11</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB29" s="32"/>
-      <c r="AC29" s="32"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="30"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="28"/>
+      <c r="AG29" s="27"/>
       <c r="AH29" s="2"/>
     </row>
     <row r="30" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="30"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="28"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="28"/>
+      <c r="AG30" s="27"/>
       <c r="AH30" s="2"/>
     </row>
     <row r="31" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>9</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="32"/>
-      <c r="X31" s="32"/>
-      <c r="Y31" s="32"/>
-      <c r="Z31" s="32"/>
-      <c r="AA31" s="32"/>
-      <c r="AB31" s="32"/>
-      <c r="AC31" s="32"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="30" t="s">
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R31" s="28"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="28"/>
+      <c r="AG31" s="27" t="s">
         <v>4</v>
       </c>
       <c r="AH31" s="2"/>
@@ -2553,192 +2571,194 @@
       <c r="A32" s="1">
         <v>8</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="30"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="28"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="28"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="28"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="27"/>
       <c r="AH32" s="2"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>7</v>
       </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="30"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="28"/>
+      <c r="R33" s="28"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="28"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="28"/>
+      <c r="W33" s="28"/>
+      <c r="X33" s="28"/>
+      <c r="Y33" s="28"/>
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="28"/>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="28"/>
+      <c r="AE33" s="28"/>
+      <c r="AF33" s="28"/>
+      <c r="AG33" s="27"/>
       <c r="AH33" s="2"/>
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>6</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="28"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="28"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="28"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="27"/>
       <c r="AH34" s="2"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="30"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="28"/>
+      <c r="W35" s="28"/>
+      <c r="X35" s="28"/>
+      <c r="Y35" s="28"/>
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="28"/>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="28"/>
+      <c r="AE35" s="28"/>
+      <c r="AF35" s="28"/>
+      <c r="AG35" s="27"/>
       <c r="AH35" s="2"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>4</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="30"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="28"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="28"/>
+      <c r="U36" s="28"/>
+      <c r="V36" s="28"/>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="27"/>
       <c r="AH36" s="2"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
@@ -2835,48 +2855,1369 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" t="s">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30</v>
+      </c>
+      <c r="D44" s="1">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1">
+        <v>28</v>
+      </c>
+      <c r="F44" s="1">
+        <v>27</v>
+      </c>
+      <c r="G44" s="1">
+        <v>26</v>
+      </c>
+      <c r="H44" s="1">
+        <v>25</v>
+      </c>
+      <c r="I44" s="1">
+        <v>24</v>
+      </c>
+      <c r="J44" s="1">
+        <v>23</v>
+      </c>
+      <c r="K44" s="1">
+        <v>22</v>
+      </c>
+      <c r="L44" s="1">
+        <v>21</v>
+      </c>
+      <c r="M44" s="1">
+        <v>20</v>
+      </c>
+      <c r="N44" s="1">
+        <v>19</v>
+      </c>
+      <c r="O44" s="1">
+        <v>18</v>
+      </c>
+      <c r="P44" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>16</v>
+      </c>
+      <c r="R44" s="1">
+        <v>15</v>
+      </c>
+      <c r="S44" s="1">
+        <v>14</v>
+      </c>
+      <c r="T44" s="1">
+        <v>13</v>
+      </c>
+      <c r="U44" s="1">
+        <v>12</v>
+      </c>
+      <c r="V44" s="1">
+        <v>11</v>
+      </c>
+      <c r="W44" s="1">
+        <v>10</v>
+      </c>
+      <c r="X44" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z44" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="15"/>
-      <c r="T65" s="13"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-    </row>
-    <row r="66" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="G66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="N66" t="s">
+      <c r="AA44" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB44" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC44" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2"/>
+    </row>
+    <row r="45" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>15</v>
+      </c>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="23"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="23"/>
+      <c r="AC45" s="20"/>
+      <c r="AD45" s="23"/>
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="23"/>
+      <c r="AG45" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH45" s="2"/>
+    </row>
+    <row r="46" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>14</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="26"/>
+      <c r="AG46" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="2"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>13</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="X47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
+      <c r="AH47" s="2"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>12</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="28"/>
+      <c r="R48" s="28"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="28"/>
+      <c r="U48" s="28"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="2"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>11</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="28"/>
+      <c r="R49" s="28"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="28"/>
+      <c r="U49" s="28"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="29"/>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="28"/>
+      <c r="AG49" s="27"/>
+      <c r="AH49" s="2"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>10</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="29"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="28"/>
+      <c r="R50" s="28"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="28"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="27"/>
+      <c r="AH50" s="2"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>9</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="28"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R51" s="28"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="28"/>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
+      <c r="Y51" s="29"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="28"/>
+      <c r="AG51" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH51" s="2"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
         <v>8</v>
       </c>
-      <c r="S66" s="14"/>
-      <c r="U66" s="13"/>
-    </row>
-    <row r="67" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="F67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="R67" s="14"/>
-      <c r="V67" s="13"/>
-    </row>
-    <row r="68" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="Q68" s="14"/>
-      <c r="W68" s="13"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="28"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="28"/>
+      <c r="R52" s="28"/>
+      <c r="S52" s="28"/>
+      <c r="T52" s="28"/>
+      <c r="U52" s="28"/>
+      <c r="V52" s="28"/>
+      <c r="W52" s="28"/>
+      <c r="X52" s="28"/>
+      <c r="Y52" s="28"/>
+      <c r="Z52" s="28"/>
+      <c r="AA52" s="28"/>
+      <c r="AB52" s="28"/>
+      <c r="AC52" s="28"/>
+      <c r="AD52" s="28"/>
+      <c r="AE52" s="28"/>
+      <c r="AF52" s="28"/>
+      <c r="AG52" s="27"/>
+      <c r="AH52" s="2"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>7</v>
+      </c>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="28"/>
+      <c r="H53" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="28"/>
+      <c r="Q53" s="28"/>
+      <c r="R53" s="28"/>
+      <c r="S53" s="28"/>
+      <c r="T53" s="28"/>
+      <c r="U53" s="28"/>
+      <c r="V53" s="28"/>
+      <c r="W53" s="28"/>
+      <c r="X53" s="28"/>
+      <c r="Y53" s="28"/>
+      <c r="Z53" s="28"/>
+      <c r="AA53" s="28"/>
+      <c r="AB53" s="28"/>
+      <c r="AC53" s="28"/>
+      <c r="AD53" s="28"/>
+      <c r="AE53" s="28"/>
+      <c r="AF53" s="28"/>
+      <c r="AG53" s="27"/>
+      <c r="AH53" s="2"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>6</v>
+      </c>
+      <c r="B54" s="27"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
+      <c r="R54" s="28"/>
+      <c r="S54" s="28"/>
+      <c r="T54" s="28"/>
+      <c r="U54" s="28"/>
+      <c r="V54" s="28"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+      <c r="Y54" s="28"/>
+      <c r="Z54" s="28"/>
+      <c r="AA54" s="28"/>
+      <c r="AB54" s="28"/>
+      <c r="AC54" s="28"/>
+      <c r="AD54" s="28"/>
+      <c r="AE54" s="28"/>
+      <c r="AF54" s="28"/>
+      <c r="AG54" s="27"/>
+      <c r="AH54" s="2"/>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>5</v>
+      </c>
+      <c r="B55" s="27"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
+      <c r="AG55" s="27"/>
+      <c r="AH55" s="2"/>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>4</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="27"/>
+      <c r="AH56" s="2"/>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>3</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="2"/>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH58" s="2"/>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH59" s="2"/>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH60" s="2"/>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="1">
+        <v>31</v>
+      </c>
+      <c r="C63" s="1">
+        <v>30</v>
+      </c>
+      <c r="D63" s="1">
+        <v>29</v>
+      </c>
+      <c r="E63" s="1">
+        <v>28</v>
+      </c>
+      <c r="F63" s="1">
+        <v>27</v>
+      </c>
+      <c r="G63" s="1">
+        <v>26</v>
+      </c>
+      <c r="H63" s="1">
+        <v>25</v>
+      </c>
+      <c r="I63" s="1">
+        <v>24</v>
+      </c>
+      <c r="J63" s="1">
+        <v>23</v>
+      </c>
+      <c r="K63" s="1">
+        <v>22</v>
+      </c>
+      <c r="L63" s="1">
+        <v>21</v>
+      </c>
+      <c r="M63" s="1">
+        <v>20</v>
+      </c>
+      <c r="N63" s="1">
+        <v>19</v>
+      </c>
+      <c r="O63" s="1">
+        <v>18</v>
+      </c>
+      <c r="P63" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>16</v>
+      </c>
+      <c r="R63" s="1">
+        <v>15</v>
+      </c>
+      <c r="S63" s="1">
+        <v>14</v>
+      </c>
+      <c r="T63" s="1">
+        <v>13</v>
+      </c>
+      <c r="U63" s="1">
+        <v>12</v>
+      </c>
+      <c r="V63" s="1">
+        <v>11</v>
+      </c>
+      <c r="W63" s="1">
+        <v>10</v>
+      </c>
+      <c r="X63" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>8</v>
+      </c>
+      <c r="Z63" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>6</v>
+      </c>
+      <c r="AB63" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC63" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD63" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF63" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="2"/>
+    </row>
+    <row r="64" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>15</v>
+      </c>
+      <c r="B64" s="22"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="20"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="20"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="24"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH64" s="2"/>
+    </row>
+    <row r="65" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>14</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="26"/>
+      <c r="AG65" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH65" s="2"/>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>13</v>
+      </c>
+      <c r="B66" s="27"/>
+      <c r="C66" s="28"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="28"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+      <c r="X66" s="28"/>
+      <c r="Y66" s="28"/>
+      <c r="Z66" s="28"/>
+      <c r="AA66" s="28"/>
+      <c r="AB66" s="28"/>
+      <c r="AC66" s="28"/>
+      <c r="AD66" s="28"/>
+      <c r="AE66" s="28"/>
+      <c r="AF66" s="28"/>
+      <c r="AG66" s="27"/>
+      <c r="AH66" s="2"/>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>12</v>
+      </c>
+      <c r="B67" s="27"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="34"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="R67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="34"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
+      <c r="AD67" s="29"/>
+      <c r="AE67" s="34"/>
+      <c r="AF67" s="28"/>
+      <c r="AG67" s="27"/>
+      <c r="AH67" s="2"/>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>11</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="34"/>
+      <c r="L68" s="34"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="28"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="34"/>
+      <c r="AE68" s="34"/>
+      <c r="AF68" s="28"/>
+      <c r="AG68" s="27"/>
+      <c r="AH68" s="2"/>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>10</v>
+      </c>
+      <c r="B69" s="27"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="34"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="28"/>
+      <c r="S69" s="28"/>
+      <c r="T69" s="28"/>
+      <c r="U69" s="28"/>
+      <c r="V69" s="28"/>
+      <c r="W69" s="34"/>
+      <c r="X69" s="29"/>
+      <c r="Y69" s="29"/>
+      <c r="Z69" s="29"/>
+      <c r="AA69" s="29"/>
+      <c r="AB69" s="29"/>
+      <c r="AC69" s="29"/>
+      <c r="AD69" s="29"/>
+      <c r="AE69" s="34"/>
+      <c r="AF69" s="33"/>
+      <c r="AG69" s="27"/>
+      <c r="AH69" s="2"/>
+    </row>
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>9</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="28"/>
+      <c r="Q70" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="R70" s="28"/>
+      <c r="S70" s="28"/>
+      <c r="T70" s="28"/>
+      <c r="U70" s="28"/>
+      <c r="V70" s="28"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="28"/>
+      <c r="AG70" s="27"/>
+      <c r="AH70" s="2"/>
+    </row>
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>8</v>
+      </c>
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="28"/>
+      <c r="Q71" s="28"/>
+      <c r="R71" s="28"/>
+      <c r="S71" s="28"/>
+      <c r="T71" s="28"/>
+      <c r="U71" s="28"/>
+      <c r="V71" s="28"/>
+      <c r="W71" s="28"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+      <c r="AA71" s="28"/>
+      <c r="AB71" s="28"/>
+      <c r="AC71" s="28"/>
+      <c r="AD71" s="28"/>
+      <c r="AE71" s="28"/>
+      <c r="AF71" s="28"/>
+      <c r="AG71" s="27"/>
+      <c r="AH71" s="2"/>
+    </row>
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>7</v>
+      </c>
+      <c r="B72" s="27"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="T72" s="28"/>
+      <c r="U72" s="28"/>
+      <c r="V72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+      <c r="Z72" s="28"/>
+      <c r="AA72" s="28"/>
+      <c r="AB72" s="28"/>
+      <c r="AC72" s="28"/>
+      <c r="AD72" s="28"/>
+      <c r="AE72" s="28"/>
+      <c r="AF72" s="28"/>
+      <c r="AG72" s="27"/>
+      <c r="AH72" s="2"/>
+    </row>
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>6</v>
+      </c>
+      <c r="B73" s="27"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="28"/>
+      <c r="Q73" s="28"/>
+      <c r="R73" s="28"/>
+      <c r="S73" s="28"/>
+      <c r="T73" s="28"/>
+      <c r="U73" s="28"/>
+      <c r="V73" s="28"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+      <c r="Z73" s="28"/>
+      <c r="AA73" s="28"/>
+      <c r="AB73" s="28"/>
+      <c r="AC73" s="28"/>
+      <c r="AD73" s="28"/>
+      <c r="AE73" s="28"/>
+      <c r="AF73" s="28"/>
+      <c r="AG73" s="27"/>
+      <c r="AH73" s="2"/>
+    </row>
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>5</v>
+      </c>
+      <c r="B74" s="27"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
+      <c r="R74" s="28"/>
+      <c r="S74" s="28"/>
+      <c r="T74" s="28"/>
+      <c r="U74" s="28"/>
+      <c r="V74" s="28"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+      <c r="Z74" s="28"/>
+      <c r="AA74" s="28"/>
+      <c r="AB74" s="28"/>
+      <c r="AC74" s="28"/>
+      <c r="AD74" s="28"/>
+      <c r="AE74" s="28"/>
+      <c r="AF74" s="28"/>
+      <c r="AG74" s="27"/>
+      <c r="AH74" s="2"/>
+    </row>
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>4</v>
+      </c>
+      <c r="B75" s="27"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="28"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="28"/>
+      <c r="S75" s="28"/>
+      <c r="T75" s="28"/>
+      <c r="U75" s="28"/>
+      <c r="V75" s="28"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+      <c r="Z75" s="28"/>
+      <c r="AA75" s="28"/>
+      <c r="AB75" s="28"/>
+      <c r="AC75" s="28"/>
+      <c r="AD75" s="28"/>
+      <c r="AE75" s="28"/>
+      <c r="AF75" s="28"/>
+      <c r="AG75" s="27"/>
+      <c r="AH75" s="2"/>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>3</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="4"/>
+      <c r="Q76" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH76" s="2"/>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH77" s="2"/>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH78" s="2"/>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH79" s="2"/>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+      <c r="AH80" s="2"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="7"/>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="25"/>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="28"/>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="34"/>
+      <c r="C87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="29"/>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
